--- a/grupos/6ALCV - Estadisticos 20242.xlsx
+++ b/grupos/6ALCV - Estadisticos 20242.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="83">
   <si>
     <t>Materia</t>
   </si>
@@ -179,18 +179,18 @@
     <t>Martínez Castillo Columba</t>
   </si>
   <si>
+    <t>Flores Ovalle Victor</t>
+  </si>
+  <si>
     <t>Merino Altamira Violeta</t>
   </si>
   <si>
+    <t>Rivera Cruz Ezequiel</t>
+  </si>
+  <si>
     <t>San Juan Diaz Anabel</t>
   </si>
   <si>
-    <t>Flores Ovalle Victor</t>
-  </si>
-  <si>
-    <t>Rivera Cruz Ezequiel</t>
-  </si>
-  <si>
     <t>Barrientos Ortiz Yuliana Isabel</t>
   </si>
   <si>
@@ -206,91 +206,64 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>BONILLA</t>
+  </si>
+  <si>
+    <t>LLANOS</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
     <t>ARELLANO</t>
   </si>
   <si>
-    <t>BONILLA</t>
-  </si>
-  <si>
-    <t>GAMBOA</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
     <t>ANGELES</t>
   </si>
   <si>
     <t>HERNANDEZ</t>
   </si>
   <si>
-    <t>DECTOR</t>
-  </si>
-  <si>
-    <t>RIVERA</t>
-  </si>
-  <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
     <t>VALENTE</t>
   </si>
   <si>
+    <t>IBAÑEZ</t>
+  </si>
+  <si>
+    <t>SANTIAGO</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
     <t>FIERROS</t>
   </si>
   <si>
-    <t>IBAÑEZ</t>
-  </si>
-  <si>
-    <t>APALE</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
     <t>ROCHA</t>
   </si>
   <si>
     <t>GUTIERREZ</t>
   </si>
   <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>DE LA CRUZ</t>
-  </si>
-  <si>
     <t>PULIDO</t>
   </si>
   <si>
+    <t>FERNANDA MARGARITA</t>
+  </si>
+  <si>
+    <t>SERGIO</t>
+  </si>
+  <si>
+    <t>AILYN</t>
+  </si>
+  <si>
     <t>ALDO EMANUEL</t>
   </si>
   <si>
-    <t>FERNANDA MARGARITA</t>
-  </si>
-  <si>
-    <t>CRHIS AMINADAB</t>
-  </si>
-  <si>
-    <t>AILYN</t>
-  </si>
-  <si>
     <t>AZURA</t>
   </si>
   <si>
     <t>JARET</t>
-  </si>
-  <si>
-    <t>KEVIN ALEXIS</t>
-  </si>
-  <si>
-    <t>NOEMI DEL ROCIO</t>
-  </si>
-  <si>
-    <t>KAREN</t>
   </si>
   <si>
     <t>JUAN EMANUEL</t>
@@ -804,22 +777,22 @@
         <v>6</v>
       </c>
       <c r="H4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N4">
         <v>-1</v>
@@ -849,13 +822,13 @@
         <v>5</v>
       </c>
       <c r="W4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -881,22 +854,22 @@
         <v>10</v>
       </c>
       <c r="H5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N5">
         <v>-1</v>
@@ -923,10 +896,10 @@
         <v>10</v>
       </c>
       <c r="V5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="W5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X5">
         <v>10</v>
@@ -958,22 +931,22 @@
         <v>10</v>
       </c>
       <c r="H6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N6">
         <v>-1</v>
@@ -1003,7 +976,7 @@
         <v>10</v>
       </c>
       <c r="W6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X6">
         <v>10</v>
@@ -1035,22 +1008,22 @@
         <v>6</v>
       </c>
       <c r="H7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N7">
         <v>-1</v>
@@ -1071,10 +1044,10 @@
         <v>-1</v>
       </c>
       <c r="T7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V7">
         <v>5</v>
@@ -1083,10 +1056,10 @@
         <v>5</v>
       </c>
       <c r="X7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y7">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1112,22 +1085,22 @@
         <v>10</v>
       </c>
       <c r="H8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N8">
         <v>-1</v>
@@ -1157,13 +1130,13 @@
         <v>10</v>
       </c>
       <c r="W8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y8">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1189,22 +1162,22 @@
         <v>6</v>
       </c>
       <c r="H9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N9">
         <v>-1</v>
@@ -1240,7 +1213,7 @@
         <v>6</v>
       </c>
       <c r="Y9">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1266,22 +1239,22 @@
         <v>10</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N10">
         <v>-1</v>
@@ -1302,22 +1275,22 @@
         <v>-1</v>
       </c>
       <c r="T10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U10">
         <v>9</v>
       </c>
       <c r="V10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="X10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y10">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1343,22 +1316,22 @@
         <v>10</v>
       </c>
       <c r="H11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N11">
         <v>-1</v>
@@ -1382,19 +1355,19 @@
         <v>6</v>
       </c>
       <c r="U11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W11">
         <v>7</v>
       </c>
       <c r="X11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y11">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1420,22 +1393,22 @@
         <v>7</v>
       </c>
       <c r="H12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K12">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N12">
         <v>-1</v>
@@ -1456,19 +1429,19 @@
         <v>-1</v>
       </c>
       <c r="T12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U12">
         <v>9</v>
       </c>
       <c r="V12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W12">
         <v>8</v>
       </c>
       <c r="X12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y12">
         <v>7</v>
@@ -1497,22 +1470,22 @@
         <v>10</v>
       </c>
       <c r="H13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N13">
         <v>-1</v>
@@ -1542,7 +1515,7 @@
         <v>10</v>
       </c>
       <c r="W13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X13">
         <v>10</v>
@@ -1574,22 +1547,22 @@
         <v>9</v>
       </c>
       <c r="H14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N14">
         <v>-1</v>
@@ -1610,22 +1583,22 @@
         <v>-1</v>
       </c>
       <c r="T14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U14">
         <v>8</v>
       </c>
       <c r="V14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y14">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1651,22 +1624,22 @@
         <v>10</v>
       </c>
       <c r="H15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N15">
         <v>-1</v>
@@ -1687,22 +1660,22 @@
         <v>-1</v>
       </c>
       <c r="T15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U15">
         <v>10</v>
       </c>
       <c r="V15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W15">
         <v>8</v>
       </c>
       <c r="X15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y15">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1728,22 +1701,22 @@
         <v>6</v>
       </c>
       <c r="H16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N16">
         <v>-1</v>
@@ -1764,22 +1737,22 @@
         <v>-1</v>
       </c>
       <c r="T16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U16">
         <v>7</v>
       </c>
       <c r="V16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y16">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -1805,22 +1778,22 @@
         <v>10</v>
       </c>
       <c r="H17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N17">
         <v>-1</v>
@@ -1850,7 +1823,7 @@
         <v>10</v>
       </c>
       <c r="W17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X17">
         <v>10</v>
@@ -1882,22 +1855,22 @@
         <v>10</v>
       </c>
       <c r="H18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N18">
         <v>-1</v>
@@ -1959,22 +1932,22 @@
         <v>7</v>
       </c>
       <c r="H19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N19">
         <v>-1</v>
@@ -1995,16 +1968,16 @@
         <v>-1</v>
       </c>
       <c r="T19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V19">
         <v>7</v>
       </c>
       <c r="W19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X19">
         <v>7</v>
@@ -2036,22 +2009,22 @@
         <v>10</v>
       </c>
       <c r="H20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N20">
         <v>-1</v>
@@ -2081,7 +2054,7 @@
         <v>10</v>
       </c>
       <c r="W20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X20">
         <v>10</v>
@@ -2113,22 +2086,22 @@
         <v>6</v>
       </c>
       <c r="H21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N21">
         <v>-1</v>
@@ -2149,10 +2122,10 @@
         <v>-1</v>
       </c>
       <c r="T21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V21">
         <v>5</v>
@@ -2164,7 +2137,7 @@
         <v>5</v>
       </c>
       <c r="Y21">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2190,22 +2163,22 @@
         <v>10</v>
       </c>
       <c r="H22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N22">
         <v>-1</v>
@@ -2232,16 +2205,16 @@
         <v>10</v>
       </c>
       <c r="V22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W22">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y22">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2267,22 +2240,22 @@
         <v>10</v>
       </c>
       <c r="H23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N23">
         <v>-1</v>
@@ -2312,7 +2285,7 @@
         <v>9</v>
       </c>
       <c r="W23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X23">
         <v>10</v>
@@ -2344,22 +2317,22 @@
         <v>9</v>
       </c>
       <c r="H24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N24">
         <v>-1</v>
@@ -2386,16 +2359,16 @@
         <v>10</v>
       </c>
       <c r="V24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X24">
         <v>10</v>
       </c>
       <c r="Y24">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -2421,22 +2394,22 @@
         <v>10</v>
       </c>
       <c r="H25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N25">
         <v>-1</v>
@@ -2463,13 +2436,13 @@
         <v>10</v>
       </c>
       <c r="V25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W25">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y25">
         <v>10</v>
@@ -2498,22 +2471,22 @@
         <v>10</v>
       </c>
       <c r="H26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N26">
         <v>-1</v>
@@ -2534,7 +2507,7 @@
         <v>-1</v>
       </c>
       <c r="T26">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U26">
         <v>8</v>
@@ -2543,7 +2516,7 @@
         <v>10</v>
       </c>
       <c r="W26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X26">
         <v>10</v>
@@ -2575,22 +2548,22 @@
         <v>9</v>
       </c>
       <c r="H27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N27">
         <v>-1</v>
@@ -2611,7 +2584,7 @@
         <v>-1</v>
       </c>
       <c r="T27">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U27">
         <v>5</v>
@@ -2626,7 +2599,7 @@
         <v>5</v>
       </c>
       <c r="Y27">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -2652,22 +2625,22 @@
         <v>9</v>
       </c>
       <c r="H28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I28">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M28">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N28">
         <v>-1</v>
@@ -2688,22 +2661,22 @@
         <v>-1</v>
       </c>
       <c r="T28">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U28">
         <v>9</v>
       </c>
       <c r="V28">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W28">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y28">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -2729,22 +2702,22 @@
         <v>6</v>
       </c>
       <c r="H29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I29">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M29">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N29">
         <v>-1</v>
@@ -2765,7 +2738,7 @@
         <v>-1</v>
       </c>
       <c r="T29">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U29">
         <v>8</v>
@@ -2774,13 +2747,13 @@
         <v>8</v>
       </c>
       <c r="W29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X29">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y29">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -2806,22 +2779,22 @@
         <v>10</v>
       </c>
       <c r="H30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M30">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N30">
         <v>-1</v>
@@ -2851,13 +2824,13 @@
         <v>5</v>
       </c>
       <c r="W30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X30">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y30">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:25">
@@ -2883,22 +2856,22 @@
         <v>10</v>
       </c>
       <c r="H31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I31">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J31">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L31">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M31">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N31">
         <v>-1</v>
@@ -2919,7 +2892,7 @@
         <v>-1</v>
       </c>
       <c r="T31">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U31">
         <v>9</v>
@@ -2928,10 +2901,10 @@
         <v>8</v>
       </c>
       <c r="W31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X31">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y31">
         <v>10</v>
@@ -3073,40 +3046,40 @@
         <v>92</v>
       </c>
       <c r="H4">
-        <v>89.5</v>
+        <v>94</v>
       </c>
       <c r="I4">
         <v>100</v>
       </c>
       <c r="J4">
-        <v>87.5</v>
+        <v>81.3</v>
       </c>
       <c r="K4">
         <v>100</v>
       </c>
       <c r="L4">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M4">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="N4">
-        <v>89.5</v>
+        <v>94</v>
       </c>
       <c r="O4">
         <v>100</v>
       </c>
       <c r="P4">
-        <v>87.5</v>
+        <v>81.3</v>
       </c>
       <c r="Q4">
         <v>100</v>
       </c>
       <c r="R4">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="S4">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3138,7 +3111,7 @@
         <v>100</v>
       </c>
       <c r="J5">
-        <v>91.7</v>
+        <v>93.8</v>
       </c>
       <c r="K5">
         <v>100</v>
@@ -3156,7 +3129,7 @@
         <v>100</v>
       </c>
       <c r="P5">
-        <v>91.7</v>
+        <v>93.8</v>
       </c>
       <c r="Q5">
         <v>100</v>
@@ -3197,7 +3170,7 @@
         <v>100</v>
       </c>
       <c r="J6">
-        <v>91.7</v>
+        <v>93.8</v>
       </c>
       <c r="K6">
         <v>100</v>
@@ -3215,7 +3188,7 @@
         <v>100</v>
       </c>
       <c r="P6">
-        <v>91.7</v>
+        <v>93.8</v>
       </c>
       <c r="Q6">
         <v>100</v>
@@ -3250,7 +3223,7 @@
         <v>88</v>
       </c>
       <c r="H7">
-        <v>78.90000000000001</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="I7">
         <v>100</v>
@@ -3262,13 +3235,13 @@
         <v>100</v>
       </c>
       <c r="L7">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="M7">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="N7">
-        <v>78.90000000000001</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="O7">
         <v>100</v>
@@ -3280,10 +3253,10 @@
         <v>100</v>
       </c>
       <c r="R7">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="S7">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -3309,13 +3282,13 @@
         <v>100</v>
       </c>
       <c r="H8">
-        <v>94.7</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="I8">
         <v>100</v>
       </c>
       <c r="J8">
-        <v>79.2</v>
+        <v>91.7</v>
       </c>
       <c r="K8">
         <v>100</v>
@@ -3327,13 +3300,13 @@
         <v>100</v>
       </c>
       <c r="N8">
-        <v>94.7</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="O8">
         <v>100</v>
       </c>
       <c r="P8">
-        <v>79.2</v>
+        <v>91.7</v>
       </c>
       <c r="Q8">
         <v>100</v>
@@ -3368,40 +3341,40 @@
         <v>92</v>
       </c>
       <c r="H9">
-        <v>78.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="I9">
+        <v>85</v>
+      </c>
+      <c r="J9">
+        <v>81.3</v>
+      </c>
+      <c r="K9">
+        <v>100</v>
+      </c>
+      <c r="L9">
         <v>70</v>
       </c>
-      <c r="J9">
-        <v>87.5</v>
-      </c>
-      <c r="K9">
-        <v>100</v>
-      </c>
-      <c r="L9">
-        <v>72</v>
-      </c>
       <c r="M9">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="N9">
-        <v>78.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="O9">
+        <v>85</v>
+      </c>
+      <c r="P9">
+        <v>81.3</v>
+      </c>
+      <c r="Q9">
+        <v>100</v>
+      </c>
+      <c r="R9">
         <v>70</v>
       </c>
-      <c r="P9">
-        <v>87.5</v>
-      </c>
-      <c r="Q9">
-        <v>100</v>
-      </c>
-      <c r="R9">
-        <v>72</v>
-      </c>
       <c r="S9">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -3427,13 +3400,13 @@
         <v>100</v>
       </c>
       <c r="H10">
-        <v>94.7</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="I10">
         <v>100</v>
       </c>
       <c r="J10">
-        <v>87.5</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K10">
         <v>100</v>
@@ -3445,13 +3418,13 @@
         <v>100</v>
       </c>
       <c r="N10">
-        <v>94.7</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="O10">
         <v>100</v>
       </c>
       <c r="P10">
-        <v>87.5</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="Q10">
         <v>100</v>
@@ -3486,37 +3459,37 @@
         <v>100</v>
       </c>
       <c r="H11">
-        <v>100</v>
+        <v>90.5</v>
       </c>
       <c r="I11">
+        <v>95</v>
+      </c>
+      <c r="J11">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="K11">
+        <v>100</v>
+      </c>
+      <c r="L11">
         <v>90</v>
       </c>
-      <c r="J11">
-        <v>95.8</v>
-      </c>
-      <c r="K11">
-        <v>100</v>
-      </c>
-      <c r="L11">
-        <v>80</v>
-      </c>
       <c r="M11">
         <v>100</v>
       </c>
       <c r="N11">
-        <v>100</v>
+        <v>90.5</v>
       </c>
       <c r="O11">
+        <v>95</v>
+      </c>
+      <c r="P11">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="Q11">
+        <v>100</v>
+      </c>
+      <c r="R11">
         <v>90</v>
-      </c>
-      <c r="P11">
-        <v>95.8</v>
-      </c>
-      <c r="Q11">
-        <v>100</v>
-      </c>
-      <c r="R11">
-        <v>80</v>
       </c>
       <c r="S11">
         <v>100</v>
@@ -3545,13 +3518,13 @@
         <v>92</v>
       </c>
       <c r="H12">
-        <v>84.2</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="I12">
         <v>100</v>
       </c>
       <c r="J12">
-        <v>83.3</v>
+        <v>79.2</v>
       </c>
       <c r="K12">
         <v>100</v>
@@ -3560,16 +3533,16 @@
         <v>100</v>
       </c>
       <c r="M12">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="N12">
-        <v>84.2</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="O12">
         <v>100</v>
       </c>
       <c r="P12">
-        <v>83.3</v>
+        <v>79.2</v>
       </c>
       <c r="Q12">
         <v>100</v>
@@ -3578,7 +3551,7 @@
         <v>100</v>
       </c>
       <c r="S12">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -3604,13 +3577,13 @@
         <v>96</v>
       </c>
       <c r="H13">
-        <v>100</v>
+        <v>95.2</v>
       </c>
       <c r="I13">
         <v>100</v>
       </c>
       <c r="J13">
-        <v>95.8</v>
+        <v>100</v>
       </c>
       <c r="K13">
         <v>100</v>
@@ -3619,16 +3592,16 @@
         <v>100</v>
       </c>
       <c r="M13">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N13">
-        <v>100</v>
+        <v>95.2</v>
       </c>
       <c r="O13">
         <v>100</v>
       </c>
       <c r="P13">
-        <v>95.8</v>
+        <v>100</v>
       </c>
       <c r="Q13">
         <v>100</v>
@@ -3637,7 +3610,7 @@
         <v>100</v>
       </c>
       <c r="S13">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -3663,13 +3636,13 @@
         <v>92</v>
       </c>
       <c r="H14">
-        <v>84.2</v>
+        <v>90.5</v>
       </c>
       <c r="I14">
         <v>100</v>
       </c>
       <c r="J14">
-        <v>87.5</v>
+        <v>95.8</v>
       </c>
       <c r="K14">
         <v>100</v>
@@ -3678,16 +3651,16 @@
         <v>100</v>
       </c>
       <c r="M14">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="N14">
-        <v>84.2</v>
+        <v>90.5</v>
       </c>
       <c r="O14">
         <v>100</v>
       </c>
       <c r="P14">
-        <v>87.5</v>
+        <v>95.8</v>
       </c>
       <c r="Q14">
         <v>100</v>
@@ -3696,7 +3669,7 @@
         <v>100</v>
       </c>
       <c r="S14">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -3722,13 +3695,13 @@
         <v>96</v>
       </c>
       <c r="H15">
-        <v>94.7</v>
+        <v>95.2</v>
       </c>
       <c r="I15">
         <v>100</v>
       </c>
       <c r="J15">
-        <v>95.8</v>
+        <v>100</v>
       </c>
       <c r="K15">
         <v>100</v>
@@ -3737,16 +3710,16 @@
         <v>100</v>
       </c>
       <c r="M15">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N15">
-        <v>94.7</v>
+        <v>95.2</v>
       </c>
       <c r="O15">
         <v>100</v>
       </c>
       <c r="P15">
-        <v>95.8</v>
+        <v>100</v>
       </c>
       <c r="Q15">
         <v>100</v>
@@ -3755,7 +3728,7 @@
         <v>100</v>
       </c>
       <c r="S15">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -3781,13 +3754,13 @@
         <v>96</v>
       </c>
       <c r="H16">
-        <v>78.90000000000001</v>
+        <v>85.7</v>
       </c>
       <c r="I16">
         <v>100</v>
       </c>
       <c r="J16">
-        <v>100</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="K16">
         <v>100</v>
@@ -3796,16 +3769,16 @@
         <v>100</v>
       </c>
       <c r="M16">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N16">
-        <v>78.90000000000001</v>
+        <v>85.7</v>
       </c>
       <c r="O16">
         <v>100</v>
       </c>
       <c r="P16">
-        <v>100</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="Q16">
         <v>100</v>
@@ -3814,7 +3787,7 @@
         <v>100</v>
       </c>
       <c r="S16">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -3840,13 +3813,13 @@
         <v>100</v>
       </c>
       <c r="H17">
-        <v>100</v>
+        <v>95.2</v>
       </c>
       <c r="I17">
         <v>100</v>
       </c>
       <c r="J17">
-        <v>75</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="K17">
         <v>100</v>
@@ -3858,13 +3831,13 @@
         <v>100</v>
       </c>
       <c r="N17">
-        <v>100</v>
+        <v>95.2</v>
       </c>
       <c r="O17">
         <v>100</v>
       </c>
       <c r="P17">
-        <v>75</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="Q17">
         <v>100</v>
@@ -3905,7 +3878,7 @@
         <v>100</v>
       </c>
       <c r="J18">
-        <v>95.8</v>
+        <v>100</v>
       </c>
       <c r="K18">
         <v>100</v>
@@ -3923,7 +3896,7 @@
         <v>100</v>
       </c>
       <c r="P18">
-        <v>95.8</v>
+        <v>100</v>
       </c>
       <c r="Q18">
         <v>100</v>
@@ -3958,13 +3931,13 @@
         <v>92</v>
       </c>
       <c r="H19">
-        <v>94.7</v>
+        <v>95.2</v>
       </c>
       <c r="I19">
         <v>100</v>
       </c>
       <c r="J19">
-        <v>95.8</v>
+        <v>100</v>
       </c>
       <c r="K19">
         <v>100</v>
@@ -3973,16 +3946,16 @@
         <v>100</v>
       </c>
       <c r="M19">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="N19">
-        <v>94.7</v>
+        <v>95.2</v>
       </c>
       <c r="O19">
         <v>100</v>
       </c>
       <c r="P19">
-        <v>95.8</v>
+        <v>100</v>
       </c>
       <c r="Q19">
         <v>100</v>
@@ -3991,7 +3964,7 @@
         <v>100</v>
       </c>
       <c r="S19">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -4017,13 +3990,13 @@
         <v>96</v>
       </c>
       <c r="H20">
-        <v>100</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="I20">
         <v>100</v>
       </c>
       <c r="J20">
-        <v>87.5</v>
+        <v>95.8</v>
       </c>
       <c r="K20">
         <v>100</v>
@@ -4032,16 +4005,16 @@
         <v>100</v>
       </c>
       <c r="M20">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N20">
-        <v>100</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="O20">
         <v>100</v>
       </c>
       <c r="P20">
-        <v>87.5</v>
+        <v>95.8</v>
       </c>
       <c r="Q20">
         <v>100</v>
@@ -4050,7 +4023,7 @@
         <v>100</v>
       </c>
       <c r="S20">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -4076,10 +4049,10 @@
         <v>88</v>
       </c>
       <c r="H21">
-        <v>78.90000000000001</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="I21">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="J21">
         <v>75</v>
@@ -4088,16 +4061,16 @@
         <v>100</v>
       </c>
       <c r="L21">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M21">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="N21">
-        <v>78.90000000000001</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="O21">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P21">
         <v>75</v>
@@ -4106,10 +4079,10 @@
         <v>100</v>
       </c>
       <c r="R21">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="S21">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -4135,13 +4108,13 @@
         <v>96</v>
       </c>
       <c r="H22">
-        <v>84.2</v>
+        <v>90.5</v>
       </c>
       <c r="I22">
         <v>100</v>
       </c>
       <c r="J22">
-        <v>95.8</v>
+        <v>100</v>
       </c>
       <c r="K22">
         <v>100</v>
@@ -4150,16 +4123,16 @@
         <v>100</v>
       </c>
       <c r="M22">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N22">
-        <v>84.2</v>
+        <v>90.5</v>
       </c>
       <c r="O22">
         <v>100</v>
       </c>
       <c r="P22">
-        <v>95.8</v>
+        <v>100</v>
       </c>
       <c r="Q22">
         <v>100</v>
@@ -4168,7 +4141,7 @@
         <v>100</v>
       </c>
       <c r="S22">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -4194,13 +4167,13 @@
         <v>96</v>
       </c>
       <c r="H23">
-        <v>100</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="I23">
         <v>100</v>
       </c>
       <c r="J23">
-        <v>75</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="K23">
         <v>100</v>
@@ -4209,16 +4182,16 @@
         <v>100</v>
       </c>
       <c r="M23">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N23">
-        <v>100</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="O23">
         <v>100</v>
       </c>
       <c r="P23">
-        <v>75</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="Q23">
         <v>100</v>
@@ -4227,7 +4200,7 @@
         <v>100</v>
       </c>
       <c r="S23">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -4253,13 +4226,13 @@
         <v>92</v>
       </c>
       <c r="H24">
-        <v>89.5</v>
+        <v>95.2</v>
       </c>
       <c r="I24">
         <v>100</v>
       </c>
       <c r="J24">
-        <v>91.7</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="K24">
         <v>100</v>
@@ -4268,16 +4241,16 @@
         <v>100</v>
       </c>
       <c r="M24">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="N24">
-        <v>89.5</v>
+        <v>95.2</v>
       </c>
       <c r="O24">
         <v>100</v>
       </c>
       <c r="P24">
-        <v>91.7</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="Q24">
         <v>100</v>
@@ -4286,7 +4259,7 @@
         <v>100</v>
       </c>
       <c r="S24">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -4318,7 +4291,7 @@
         <v>100</v>
       </c>
       <c r="J25">
-        <v>75</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="K25">
         <v>100</v>
@@ -4336,7 +4309,7 @@
         <v>100</v>
       </c>
       <c r="P25">
-        <v>75</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="Q25">
         <v>100</v>
@@ -4377,7 +4350,7 @@
         <v>100</v>
       </c>
       <c r="J26">
-        <v>83.3</v>
+        <v>93.8</v>
       </c>
       <c r="K26">
         <v>100</v>
@@ -4395,7 +4368,7 @@
         <v>100</v>
       </c>
       <c r="P26">
-        <v>83.3</v>
+        <v>93.8</v>
       </c>
       <c r="Q26">
         <v>100</v>
@@ -4430,40 +4403,40 @@
         <v>88</v>
       </c>
       <c r="H27">
-        <v>84.2</v>
+        <v>81</v>
       </c>
       <c r="I27">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="J27">
-        <v>91.7</v>
+        <v>83.3</v>
       </c>
       <c r="K27">
         <v>100</v>
       </c>
       <c r="L27">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="M27">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="N27">
-        <v>84.2</v>
+        <v>81</v>
       </c>
       <c r="O27">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="P27">
-        <v>91.7</v>
+        <v>83.3</v>
       </c>
       <c r="Q27">
         <v>100</v>
       </c>
       <c r="R27">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="S27">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:19">
@@ -4489,13 +4462,13 @@
         <v>92</v>
       </c>
       <c r="H28">
-        <v>94.7</v>
+        <v>95.2</v>
       </c>
       <c r="I28">
         <v>100</v>
       </c>
       <c r="J28">
-        <v>79.2</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="K28">
         <v>100</v>
@@ -4504,16 +4477,16 @@
         <v>100</v>
       </c>
       <c r="M28">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="N28">
-        <v>94.7</v>
+        <v>95.2</v>
       </c>
       <c r="O28">
         <v>100</v>
       </c>
       <c r="P28">
-        <v>79.2</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="Q28">
         <v>100</v>
@@ -4522,7 +4495,7 @@
         <v>100</v>
       </c>
       <c r="S28">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -4548,13 +4521,13 @@
         <v>88</v>
       </c>
       <c r="H29">
-        <v>94.7</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="I29">
         <v>100</v>
       </c>
       <c r="J29">
-        <v>75</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="K29">
         <v>100</v>
@@ -4563,16 +4536,16 @@
         <v>100</v>
       </c>
       <c r="M29">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="N29">
-        <v>94.7</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="O29">
         <v>100</v>
       </c>
       <c r="P29">
-        <v>75</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="Q29">
         <v>100</v>
@@ -4581,7 +4554,7 @@
         <v>100</v>
       </c>
       <c r="S29">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -4622,7 +4595,7 @@
         <v>100</v>
       </c>
       <c r="M30">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="N30">
         <v>100</v>
@@ -4640,7 +4613,7 @@
         <v>100</v>
       </c>
       <c r="S30">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -4666,13 +4639,13 @@
         <v>92</v>
       </c>
       <c r="H31">
-        <v>100</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="I31">
         <v>100</v>
       </c>
       <c r="J31">
-        <v>75</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="K31">
         <v>100</v>
@@ -4681,16 +4654,16 @@
         <v>100</v>
       </c>
       <c r="M31">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="N31">
-        <v>100</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="O31">
         <v>100</v>
       </c>
       <c r="P31">
-        <v>75</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="Q31">
         <v>100</v>
@@ -4699,7 +4672,7 @@
         <v>100</v>
       </c>
       <c r="S31">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -4780,7 +4753,7 @@
         <v>25</v>
       </c>
       <c r="H2">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -4791,7 +4764,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>53</v>
@@ -4800,19 +4773,19 @@
         <v>28</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2">
-        <v>75</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="G3" s="2">
-        <v>25</v>
+        <v>7.1</v>
       </c>
       <c r="H3">
-        <v>7.4</v>
+        <v>8.6</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -4823,7 +4796,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>54</v>
@@ -4832,19 +4805,19 @@
         <v>28</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2">
-        <v>78.59999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="G4" s="2">
-        <v>21.4</v>
+        <v>7.1</v>
       </c>
       <c r="H4">
-        <v>8.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -4855,7 +4828,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -4864,16 +4837,16 @@
         <v>28</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2">
-        <v>85.7</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="G5" s="2">
-        <v>14.3</v>
+        <v>7.1</v>
       </c>
       <c r="H5">
         <v>8.5</v>
@@ -4887,7 +4860,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>56</v>
@@ -4896,19 +4869,19 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2">
-        <v>92.90000000000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="G6" s="2">
-        <v>7.1</v>
+        <v>3.6</v>
       </c>
       <c r="H6">
-        <v>8.9</v>
+        <v>8.4</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -4940,7 +4913,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -4993,7 +4966,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5028,22 +5001,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>22330051920231</v>
+        <v>22330051920233</v>
       </c>
       <c r="B2" t="s">
         <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -5051,22 +5024,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>22330051920231</v>
+        <v>22330051920233</v>
       </c>
       <c r="B3" t="s">
         <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -5074,16 +5047,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>22330051920231</v>
+        <v>22330051920233</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -5097,22 +5070,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>22330051920231</v>
+        <v>21330051420317</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -5120,19 +5093,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>22330051920233</v>
+        <v>21330051420317</v>
       </c>
       <c r="B6" t="s">
         <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
         <v>54</v>
@@ -5143,19 +5116,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>22330051920233</v>
+        <v>21330051420317</v>
       </c>
       <c r="B7" t="s">
         <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -5166,22 +5139,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>22330051920233</v>
+        <v>22330051920366</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -5189,22 +5162,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>22330051920239</v>
+        <v>22330051920366</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -5212,22 +5185,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>22330051920239</v>
+        <v>22330051920366</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G10">
         <v>5</v>
@@ -5235,22 +5208,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>22330051920239</v>
+        <v>22330051920231</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -5258,22 +5231,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>22330051920366</v>
+        <v>22330051920231</v>
       </c>
       <c r="B12" t="s">
         <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G12">
         <v>5</v>
@@ -5281,16 +5254,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>22330051920366</v>
+        <v>22330051920230</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
         <v>7</v>
@@ -5304,22 +5277,22 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>22330051920366</v>
+        <v>22330051920357</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G14">
         <v>5</v>
@@ -5327,16 +5300,16 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>22330051920230</v>
+        <v>22330051920401</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E15" t="s">
         <v>7</v>
@@ -5345,167 +5318,6 @@
         <v>52</v>
       </c>
       <c r="G15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>22330051920230</v>
-      </c>
-      <c r="B16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" t="s">
-        <v>86</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>22330051920357</v>
-      </c>
-      <c r="B17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>22330051920357</v>
-      </c>
-      <c r="B18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>22330051920236</v>
-      </c>
-      <c r="B19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" t="s">
-        <v>88</v>
-      </c>
-      <c r="E19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>22330051920253</v>
-      </c>
-      <c r="B20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" t="s">
-        <v>89</v>
-      </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>22330051920257</v>
-      </c>
-      <c r="B21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" t="s">
-        <v>90</v>
-      </c>
-      <c r="E21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>22330051920401</v>
-      </c>
-      <c r="B22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G22">
         <v>5</v>
       </c>
     </row>
